--- a/scripts/correlation/metric_df/MAL-II_metrics.xlsx
+++ b/scripts/correlation/metric_df/MAL-II_metrics.xlsx
@@ -486,7 +486,7 @@
         <v>1.663929689022631</v>
       </c>
       <c r="E2" t="n">
-        <v>1.663929689022631</v>
+        <v>3.327859378045262</v>
       </c>
       <c r="F2" t="n">
         <v>1.571466900000001</v>
@@ -509,7 +509,7 @@
         <v>1.926509882681904</v>
       </c>
       <c r="E3" t="n">
-        <v>1.926509882681904</v>
+        <v>3.853019765363809</v>
       </c>
       <c r="F3" t="n">
         <v>3.313950933333328</v>
@@ -532,7 +532,7 @@
         <v>4.166931909228419</v>
       </c>
       <c r="E4" t="n">
-        <v>4.166931909228419</v>
+        <v>8.333863818456837</v>
       </c>
       <c r="F4" t="n">
         <v>1.057411524999999</v>
@@ -559,7 +559,7 @@
         <v>3.837589611367167</v>
       </c>
       <c r="E5" t="n">
-        <v>3.837589611367167</v>
+        <v>7.675179222734335</v>
       </c>
       <c r="F5" t="n">
         <v>5.558725947594758</v>
@@ -582,7 +582,7 @@
         <v>4.108248112254997</v>
       </c>
       <c r="E6" t="n">
-        <v>4.108248112254997</v>
+        <v>8.216496224509994</v>
       </c>
       <c r="F6" t="n">
         <v>4.629070380000003</v>
@@ -609,7 +609,7 @@
         <v>4.03618621316521</v>
       </c>
       <c r="E7" t="n">
-        <v>4.03618621316521</v>
+        <v>8.07237242633042</v>
       </c>
       <c r="F7" t="n">
         <v>18.13242547588092</v>
@@ -632,7 +632,7 @@
         <v>3.730305000581196</v>
       </c>
       <c r="E8" t="n">
-        <v>3.730305000581196</v>
+        <v>7.460610001162393</v>
       </c>
       <c r="F8" t="n">
         <v>18.48679693333334</v>
@@ -655,7 +655,7 @@
         <v>4.214625870722777</v>
       </c>
       <c r="E9" t="n">
-        <v>4.214625870722777</v>
+        <v>8.429251741445555</v>
       </c>
       <c r="F9" t="n">
         <v>3.669427566666669</v>
@@ -682,7 +682,7 @@
         <v>4.10571032184168</v>
       </c>
       <c r="E10" t="n">
-        <v>4.10571032184168</v>
+        <v>8.211420643683359</v>
       </c>
       <c r="F10" t="n">
         <v>5.111511700000001</v>
@@ -709,7 +709,7 @@
         <v>4.071263742174115</v>
       </c>
       <c r="E11" t="n">
-        <v>4.071263742174115</v>
+        <v>8.14252748434823</v>
       </c>
       <c r="F11" t="n">
         <v>10.44162536666666</v>
@@ -732,7 +732,7 @@
         <v>3.960315131598792</v>
       </c>
       <c r="E12" t="n">
-        <v>3.960315131598792</v>
+        <v>7.920630263197585</v>
       </c>
       <c r="F12" t="n">
         <v>8.989492100000003</v>
@@ -753,16 +753,16 @@
         <v>-0.4691453039444445</v>
       </c>
       <c r="C13" t="n">
-        <v>1.993078126869602</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="D13" t="n">
-        <v>1.993078126869602</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="E13" t="n">
-        <v>1.993078126869602</v>
+        <v>7.986499122649509</v>
       </c>
       <c r="F13" t="n">
-        <v>3.604707245724574</v>
+        <v>5.821840284028402</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>4.078905980367729</v>
       </c>
       <c r="E14" t="n">
-        <v>4.078905980367729</v>
+        <v>8.157811960735458</v>
       </c>
       <c r="F14" t="n">
         <v>5.503522218888558</v>
@@ -813,7 +813,7 @@
         <v>4.173715172887023</v>
       </c>
       <c r="E15" t="n">
-        <v>4.173715172887023</v>
+        <v>8.347430345774047</v>
       </c>
       <c r="F15" t="n">
         <v>17.97373033333333</v>
@@ -830,16 +830,16 @@
         <v>-0.33461388</v>
       </c>
       <c r="C16" t="n">
-        <v>3.795369541055058</v>
+        <v>4.022184951540781</v>
       </c>
       <c r="D16" t="n">
-        <v>3.795369541055058</v>
+        <v>4.022184951540781</v>
       </c>
       <c r="E16" t="n">
-        <v>3.795369541055058</v>
+        <v>8.044369903081563</v>
       </c>
       <c r="F16" t="n">
-        <v>15.64729126666667</v>
+        <v>15.16783846666667</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -859,7 +859,7 @@
         <v>4.153007729280333</v>
       </c>
       <c r="E17" t="n">
-        <v>4.153007729280333</v>
+        <v>8.306015458560665</v>
       </c>
       <c r="F17" t="n">
         <v>2.050093180000002</v>
@@ -882,7 +882,7 @@
         <v>4.170488355819718</v>
       </c>
       <c r="E18" t="n">
-        <v>4.170488355819718</v>
+        <v>8.340976711639437</v>
       </c>
       <c r="F18" t="n">
         <v>1.820703680000002</v>
@@ -909,7 +909,7 @@
         <v>4.22816390159193</v>
       </c>
       <c r="E19" t="n">
-        <v>4.22816390159193</v>
+        <v>8.456327803183861</v>
       </c>
       <c r="F19" t="n">
         <v>3.235384299999998</v>
@@ -936,7 +936,7 @@
         <v>4.194092176920991</v>
       </c>
       <c r="E20" t="n">
-        <v>7.856620161262073</v>
+        <v>15.71324032252415</v>
       </c>
       <c r="F20" t="n">
         <v>50.4766597</v>
@@ -957,16 +957,16 @@
         <v>-0.267855842</v>
       </c>
       <c r="C21" t="n">
-        <v>3.985818711945287</v>
+        <v>1.809833645517409</v>
       </c>
       <c r="D21" t="n">
-        <v>4.249764853871158</v>
+        <v>1.939173699378686</v>
       </c>
       <c r="E21" t="n">
-        <v>7.971637423890574</v>
+        <v>7.239334582069636</v>
       </c>
       <c r="F21" t="n">
-        <v>34.43948806785988</v>
+        <v>16.23197238609473</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>3.667641806563517</v>
       </c>
       <c r="E22" t="n">
-        <v>3.667641806563517</v>
+        <v>7.335283613127033</v>
       </c>
       <c r="F22" t="n">
         <v>71.09712714604792</v>
@@ -1017,7 +1017,7 @@
         <v>4.027885718913207</v>
       </c>
       <c r="E23" t="n">
-        <v>4.027885718913207</v>
+        <v>8.055771437826413</v>
       </c>
       <c r="F23" t="n">
         <v>12.60221694497218</v>
@@ -1034,16 +1034,16 @@
         <v>0.212229848</v>
       </c>
       <c r="C24" t="n">
-        <v>2.467945786510408</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="D24" t="n">
-        <v>2.467945786510408</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="E24" t="n">
-        <v>2.467945786510408</v>
+        <v>8.335219187199861</v>
       </c>
       <c r="F24" t="n">
-        <v>13.18267167142857</v>
+        <v>14.58780040000001</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>4.278803872701642</v>
       </c>
       <c r="E25" t="n">
-        <v>4.278803872701642</v>
+        <v>8.557607745403285</v>
       </c>
       <c r="F25" t="n">
         <v>2.282187149999996</v>
@@ -1094,7 +1094,7 @@
         <v>3.863303769247083</v>
       </c>
       <c r="E26" t="n">
-        <v>7.648807867733378</v>
+        <v>15.29761573546676</v>
       </c>
       <c r="F26" t="n">
         <v>9.767703300000001</v>
@@ -1121,7 +1121,7 @@
         <v>4.168445786373701</v>
       </c>
       <c r="E27" t="n">
-        <v>4.168445786373701</v>
+        <v>8.336891572747403</v>
       </c>
       <c r="F27" t="n">
         <v>7.040481399999997</v>
@@ -1148,7 +1148,7 @@
         <v>4.120631616006582</v>
       </c>
       <c r="E28" t="n">
-        <v>4.120631616006582</v>
+        <v>8.241263232013164</v>
       </c>
       <c r="F28" t="n">
         <v>4.454476960000001</v>
@@ -1175,7 +1175,7 @@
         <v>1.926965893336286</v>
       </c>
       <c r="E29" t="n">
-        <v>1.926965893336286</v>
+        <v>3.853931786672573</v>
       </c>
       <c r="F29" t="n">
         <v>3.091470333333334</v>
@@ -1202,7 +1202,7 @@
         <v>4.176913134284119</v>
       </c>
       <c r="E30" t="n">
-        <v>8.262591065723601</v>
+        <v>16.5251821314472</v>
       </c>
       <c r="F30" t="n">
         <v>15.93548876887689</v>
@@ -1229,7 +1229,7 @@
         <v>4.033824190612219</v>
       </c>
       <c r="E31" t="n">
-        <v>4.033824190612219</v>
+        <v>8.067648381224437</v>
       </c>
       <c r="F31" t="n">
         <v>1.100486128612861</v>
@@ -1256,7 +1256,7 @@
         <v>3.782654212143295</v>
       </c>
       <c r="E32" t="n">
-        <v>3.782654212143295</v>
+        <v>7.565308424286591</v>
       </c>
       <c r="F32" t="n">
         <v>64.11170562</v>
@@ -1283,7 +1283,7 @@
         <v>3.658147087190824</v>
       </c>
       <c r="E33" t="n">
-        <v>3.658147087190824</v>
+        <v>7.316294174381649</v>
       </c>
       <c r="F33" t="n">
         <v>20.51193684</v>
@@ -1306,7 +1306,7 @@
         <v>3.879456189488625</v>
       </c>
       <c r="E34" t="n">
-        <v>3.879456189488625</v>
+        <v>7.75891237897725</v>
       </c>
       <c r="F34" t="n">
         <v>33.940743025</v>
@@ -1329,7 +1329,7 @@
         <v>4.35395110425367</v>
       </c>
       <c r="E35" t="n">
-        <v>4.35395110425367</v>
+        <v>8.70790220850734</v>
       </c>
       <c r="F35" t="n">
         <v>2.084787055555557</v>
@@ -1350,16 +1350,16 @@
         <v>-0.225644532</v>
       </c>
       <c r="C36" t="n">
-        <v>1.882777586818324</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="D36" t="n">
-        <v>1.882777586818324</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="E36" t="n">
-        <v>1.882777586818324</v>
+        <v>8.387328529461632</v>
       </c>
       <c r="F36" t="n">
-        <v>2.181886268626866</v>
+        <v>3.915694489448946</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>4.41969593359119</v>
       </c>
       <c r="E37" t="n">
-        <v>4.41969593359119</v>
+        <v>8.83939186718238</v>
       </c>
       <c r="F37" t="n">
         <v>1.405267933333332</v>
@@ -1406,7 +1406,7 @@
         <v>4.351221609869249</v>
       </c>
       <c r="E38" t="n">
-        <v>4.351221609869249</v>
+        <v>8.702443219738498</v>
       </c>
       <c r="F38" t="n">
         <v>1.04301899810019</v>
@@ -1433,7 +1433,7 @@
         <v>4.318021917989927</v>
       </c>
       <c r="E39" t="n">
-        <v>4.318021917989927</v>
+        <v>8.636043835979853</v>
       </c>
       <c r="F39" t="n">
         <v>4.027370837916208</v>

--- a/scripts/correlation/metric_df/MAL-II_metrics.xlsx
+++ b/scripts/correlation/metric_df/MAL-II_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.302190333</v>
       </c>
       <c r="C2" t="n">
-        <v>1.663929689022631</v>
+        <v>0.8319648445113156</v>
       </c>
       <c r="D2" t="n">
         <v>1.663929689022631</v>
       </c>
       <c r="E2" t="n">
-        <v>3.327859378045262</v>
+        <v>1.663929689022631</v>
       </c>
       <c r="F2" t="n">
-        <v>1.571466900000001</v>
+        <v>0.7857334500000007</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -503,16 +503,16 @@
         <v>-0.197320411</v>
       </c>
       <c r="C3" t="n">
-        <v>1.926509882681904</v>
+        <v>0.9632549413409521</v>
       </c>
       <c r="D3" t="n">
         <v>1.926509882681904</v>
       </c>
       <c r="E3" t="n">
-        <v>3.853019765363809</v>
+        <v>1.926509882681904</v>
       </c>
       <c r="F3" t="n">
-        <v>3.313950933333328</v>
+        <v>1.656975466666664</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -526,16 +526,16 @@
         <v>-0.360426374</v>
       </c>
       <c r="C4" t="n">
-        <v>4.166931909228419</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.166931909228419</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.333863818456837</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.057411524999999</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,16 +553,16 @@
         <v>-0.647383044</v>
       </c>
       <c r="C5" t="n">
-        <v>3.837589611367167</v>
+        <v>1.918794805683584</v>
       </c>
       <c r="D5" t="n">
         <v>3.837589611367167</v>
       </c>
       <c r="E5" t="n">
-        <v>7.675179222734335</v>
+        <v>3.837589611367167</v>
       </c>
       <c r="F5" t="n">
-        <v>5.558725947594758</v>
+        <v>2.779362973797379</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -576,16 +576,16 @@
         <v>0.8952998042777777</v>
       </c>
       <c r="C6" t="n">
-        <v>4.108248112254997</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.108248112254997</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8.216496224509994</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.629070380000003</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -603,16 +603,16 @@
         <v>0.649961769</v>
       </c>
       <c r="C7" t="n">
-        <v>4.03618621316521</v>
+        <v>2.018093106582605</v>
       </c>
       <c r="D7" t="n">
         <v>4.03618621316521</v>
       </c>
       <c r="E7" t="n">
-        <v>8.07237242633042</v>
+        <v>4.03618621316521</v>
       </c>
       <c r="F7" t="n">
-        <v>18.13242547588092</v>
+        <v>9.066212737940461</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -626,16 +626,16 @@
         <v>-0.437960094</v>
       </c>
       <c r="C8" t="n">
-        <v>3.730305000581196</v>
+        <v>1.865152500290598</v>
       </c>
       <c r="D8" t="n">
         <v>3.730305000581196</v>
       </c>
       <c r="E8" t="n">
-        <v>7.460610001162393</v>
+        <v>3.730305000581196</v>
       </c>
       <c r="F8" t="n">
-        <v>18.48679693333334</v>
+        <v>9.243398466666669</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -649,16 +649,16 @@
         <v>-0.303322377</v>
       </c>
       <c r="C9" t="n">
-        <v>4.214625870722777</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.214625870722777</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>8.429251741445555</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.669427566666669</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -676,16 +676,16 @@
         <v>0.032944509</v>
       </c>
       <c r="C10" t="n">
-        <v>4.10571032184168</v>
+        <v>2.05285516092084</v>
       </c>
       <c r="D10" t="n">
         <v>4.10571032184168</v>
       </c>
       <c r="E10" t="n">
-        <v>8.211420643683359</v>
+        <v>4.10571032184168</v>
       </c>
       <c r="F10" t="n">
-        <v>5.111511700000001</v>
+        <v>2.555755850000001</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -703,16 +703,16 @@
         <v>0.186408464</v>
       </c>
       <c r="C11" t="n">
-        <v>4.071263742174115</v>
+        <v>2.035631871087058</v>
       </c>
       <c r="D11" t="n">
         <v>4.071263742174115</v>
       </c>
       <c r="E11" t="n">
-        <v>8.14252748434823</v>
+        <v>4.071263742174115</v>
       </c>
       <c r="F11" t="n">
-        <v>10.44162536666666</v>
+        <v>5.22081268333333</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -726,16 +726,16 @@
         <v>-0.143419403</v>
       </c>
       <c r="C12" t="n">
-        <v>3.960315131598792</v>
+        <v>1.980157565799396</v>
       </c>
       <c r="D12" t="n">
         <v>3.960315131598792</v>
       </c>
       <c r="E12" t="n">
-        <v>7.920630263197585</v>
+        <v>3.960315131598792</v>
       </c>
       <c r="F12" t="n">
-        <v>8.989492100000003</v>
+        <v>4.494746050000002</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -753,16 +753,16 @@
         <v>-0.4691453039444445</v>
       </c>
       <c r="C13" t="n">
-        <v>3.993249561324754</v>
+        <v>0.9965390634348009</v>
       </c>
       <c r="D13" t="n">
-        <v>3.993249561324754</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="E13" t="n">
-        <v>7.986499122649509</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="F13" t="n">
-        <v>5.821840284028402</v>
+        <v>1.802353622862287</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -780,16 +780,16 @@
         <v>1.022431534305555</v>
       </c>
       <c r="C14" t="n">
-        <v>4.078905980367729</v>
+        <v>2.039452990183865</v>
       </c>
       <c r="D14" t="n">
         <v>4.078905980367729</v>
       </c>
       <c r="E14" t="n">
-        <v>8.157811960735458</v>
+        <v>4.078905980367729</v>
       </c>
       <c r="F14" t="n">
-        <v>5.503522218888558</v>
+        <v>2.751761109444279</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
         <v>0.270668701</v>
       </c>
       <c r="C15" t="n">
-        <v>4.173715172887023</v>
+        <v>2.086857586443512</v>
       </c>
       <c r="D15" t="n">
         <v>4.173715172887023</v>
       </c>
       <c r="E15" t="n">
-        <v>8.347430345774047</v>
+        <v>4.173715172887023</v>
       </c>
       <c r="F15" t="n">
-        <v>17.97373033333333</v>
+        <v>8.986865166666666</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -830,16 +830,16 @@
         <v>-0.33461388</v>
       </c>
       <c r="C16" t="n">
-        <v>4.022184951540781</v>
+        <v>1.897684770527529</v>
       </c>
       <c r="D16" t="n">
-        <v>4.022184951540781</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="E16" t="n">
-        <v>8.044369903081563</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="F16" t="n">
-        <v>15.16783846666667</v>
+        <v>7.823645633333334</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -853,16 +853,16 @@
         <v>-0.074216804</v>
       </c>
       <c r="C17" t="n">
-        <v>4.153007729280333</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.153007729280333</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.306015458560665</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.050093180000002</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -876,16 +876,16 @@
         <v>0.047282888</v>
       </c>
       <c r="C18" t="n">
-        <v>4.170488355819718</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4.170488355819718</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>8.340976711639437</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.820703680000002</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>-0.059897697</v>
       </c>
       <c r="C19" t="n">
-        <v>4.22816390159193</v>
+        <v>2.114081950795965</v>
       </c>
       <c r="D19" t="n">
         <v>4.22816390159193</v>
       </c>
       <c r="E19" t="n">
-        <v>8.456327803183861</v>
+        <v>4.22816390159193</v>
       </c>
       <c r="F19" t="n">
-        <v>3.235384299999998</v>
+        <v>1.617692149999999</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -930,16 +930,16 @@
         <v>-0.229252688</v>
       </c>
       <c r="C20" t="n">
-        <v>3.928310080631037</v>
+        <v>1.964155040315518</v>
       </c>
       <c r="D20" t="n">
         <v>4.194092176920991</v>
       </c>
       <c r="E20" t="n">
-        <v>15.71324032252415</v>
+        <v>7.856620161262073</v>
       </c>
       <c r="F20" t="n">
-        <v>50.4766597</v>
+        <v>25.23832985</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -957,16 +957,16 @@
         <v>-0.267855842</v>
       </c>
       <c r="C21" t="n">
-        <v>1.809833645517409</v>
+        <v>1.992909355972643</v>
       </c>
       <c r="D21" t="n">
-        <v>1.939173699378686</v>
+        <v>4.249764853871158</v>
       </c>
       <c r="E21" t="n">
-        <v>7.239334582069636</v>
+        <v>7.971637423890574</v>
       </c>
       <c r="F21" t="n">
-        <v>16.23197238609473</v>
+        <v>17.21974403392994</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -984,16 +984,16 @@
         <v>-0.240328161</v>
       </c>
       <c r="C22" t="n">
-        <v>3.667641806563517</v>
+        <v>1.833820903281758</v>
       </c>
       <c r="D22" t="n">
         <v>3.667641806563517</v>
       </c>
       <c r="E22" t="n">
-        <v>7.335283613127033</v>
+        <v>3.667641806563517</v>
       </c>
       <c r="F22" t="n">
-        <v>71.09712714604792</v>
+        <v>35.54856357302396</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1011,16 +1011,16 @@
         <v>0.570643206</v>
       </c>
       <c r="C23" t="n">
-        <v>4.027885718913207</v>
+        <v>2.013942859456603</v>
       </c>
       <c r="D23" t="n">
         <v>4.027885718913207</v>
       </c>
       <c r="E23" t="n">
-        <v>8.055771437826413</v>
+        <v>4.027885718913207</v>
       </c>
       <c r="F23" t="n">
-        <v>12.60221694497218</v>
+        <v>6.301108472486089</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1034,16 +1034,16 @@
         <v>0.212229848</v>
       </c>
       <c r="C24" t="n">
-        <v>4.167609593599931</v>
+        <v>1.233972893255204</v>
       </c>
       <c r="D24" t="n">
-        <v>4.167609593599931</v>
+        <v>2.467945786510408</v>
       </c>
       <c r="E24" t="n">
-        <v>8.335219187199861</v>
+        <v>2.467945786510408</v>
       </c>
       <c r="F24" t="n">
-        <v>14.58780040000001</v>
+        <v>6.591335835714286</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1061,16 +1061,16 @@
         <v>-0.130692911</v>
       </c>
       <c r="C25" t="n">
-        <v>4.278803872701642</v>
+        <v>2.139401936350821</v>
       </c>
       <c r="D25" t="n">
         <v>4.278803872701642</v>
       </c>
       <c r="E25" t="n">
-        <v>8.557607745403285</v>
+        <v>4.278803872701642</v>
       </c>
       <c r="F25" t="n">
-        <v>2.282187149999996</v>
+        <v>1.141093574999998</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         <v>-0.18653398</v>
       </c>
       <c r="C26" t="n">
-        <v>3.824403933866689</v>
+        <v>1.912201966933345</v>
       </c>
       <c r="D26" t="n">
         <v>3.863303769247083</v>
       </c>
       <c r="E26" t="n">
-        <v>15.29761573546676</v>
+        <v>7.648807867733378</v>
       </c>
       <c r="F26" t="n">
-        <v>9.767703300000001</v>
+        <v>4.88385165</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1115,16 +1115,16 @@
         <v>-0.211973597</v>
       </c>
       <c r="C27" t="n">
-        <v>4.168445786373701</v>
+        <v>2.084222893186851</v>
       </c>
       <c r="D27" t="n">
         <v>4.168445786373701</v>
       </c>
       <c r="E27" t="n">
-        <v>8.336891572747403</v>
+        <v>4.168445786373701</v>
       </c>
       <c r="F27" t="n">
-        <v>7.040481399999997</v>
+        <v>3.520240699999999</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1142,16 +1142,16 @@
         <v>-0.4626490093611111</v>
       </c>
       <c r="C28" t="n">
-        <v>4.120631616006582</v>
+        <v>2.060315808003291</v>
       </c>
       <c r="D28" t="n">
         <v>4.120631616006582</v>
       </c>
       <c r="E28" t="n">
-        <v>8.241263232013164</v>
+        <v>4.120631616006582</v>
       </c>
       <c r="F28" t="n">
-        <v>4.454476960000001</v>
+        <v>2.22723848</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1169,16 +1169,16 @@
         <v>-0.201026073</v>
       </c>
       <c r="C29" t="n">
-        <v>1.926965893336286</v>
+        <v>0.9634829466681432</v>
       </c>
       <c r="D29" t="n">
         <v>1.926965893336286</v>
       </c>
       <c r="E29" t="n">
-        <v>3.853931786672573</v>
+        <v>1.926965893336286</v>
       </c>
       <c r="F29" t="n">
-        <v>3.091470333333334</v>
+        <v>1.545735166666667</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1196,16 +1196,16 @@
         <v>0.889372469</v>
       </c>
       <c r="C30" t="n">
-        <v>4.131295532861801</v>
+        <v>2.0656477664309</v>
       </c>
       <c r="D30" t="n">
         <v>4.176913134284119</v>
       </c>
       <c r="E30" t="n">
-        <v>16.5251821314472</v>
+        <v>8.262591065723601</v>
       </c>
       <c r="F30" t="n">
-        <v>15.93548876887689</v>
+        <v>7.967744384438445</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1223,16 +1223,16 @@
         <v>-0.216916565</v>
       </c>
       <c r="C31" t="n">
-        <v>4.033824190612219</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.033824190612219</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>8.067648381224437</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.100486128612861</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1250,16 +1250,16 @@
         <v>-0.233172382</v>
       </c>
       <c r="C32" t="n">
-        <v>3.782654212143295</v>
+        <v>1.891327106071648</v>
       </c>
       <c r="D32" t="n">
         <v>3.782654212143295</v>
       </c>
       <c r="E32" t="n">
-        <v>7.565308424286591</v>
+        <v>3.782654212143295</v>
       </c>
       <c r="F32" t="n">
-        <v>64.11170562</v>
+        <v>32.05585281</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1277,16 +1277,16 @@
         <v>-0.757075503</v>
       </c>
       <c r="C33" t="n">
-        <v>3.658147087190824</v>
+        <v>1.829073543595412</v>
       </c>
       <c r="D33" t="n">
         <v>3.658147087190824</v>
       </c>
       <c r="E33" t="n">
-        <v>7.316294174381649</v>
+        <v>3.658147087190824</v>
       </c>
       <c r="F33" t="n">
-        <v>20.51193684</v>
+        <v>10.25596842</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>
@@ -1300,16 +1300,16 @@
         <v>-0.669244932</v>
       </c>
       <c r="C34" t="n">
-        <v>3.879456189488625</v>
+        <v>1.939728094744313</v>
       </c>
       <c r="D34" t="n">
         <v>3.879456189488625</v>
       </c>
       <c r="E34" t="n">
-        <v>7.75891237897725</v>
+        <v>3.879456189488625</v>
       </c>
       <c r="F34" t="n">
-        <v>33.940743025</v>
+        <v>16.9703715125</v>
       </c>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1323,16 +1323,16 @@
         <v>-0.405177893</v>
       </c>
       <c r="C35" t="n">
-        <v>4.35395110425367</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>4.35395110425367</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.70790220850734</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.084787055555557</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1350,16 +1350,16 @@
         <v>-0.225644532</v>
       </c>
       <c r="C36" t="n">
-        <v>4.193664264730816</v>
+        <v>0.9413887934091622</v>
       </c>
       <c r="D36" t="n">
-        <v>4.193664264730816</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="E36" t="n">
-        <v>8.387328529461632</v>
+        <v>1.882777586818324</v>
       </c>
       <c r="F36" t="n">
-        <v>3.915694489448946</v>
+        <v>1.090943134313433</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1377,16 +1377,16 @@
         <v>-0.494794386</v>
       </c>
       <c r="C37" t="n">
-        <v>4.41969593359119</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.41969593359119</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.83939186718238</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.405267933333332</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr"/>
     </row>
@@ -1400,16 +1400,16 @@
         <v>-0.144996544</v>
       </c>
       <c r="C38" t="n">
-        <v>4.351221609869249</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>4.351221609869249</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.702443219738498</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.04301899810019</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1427,16 +1427,16 @@
         <v>-0.207162798</v>
       </c>
       <c r="C39" t="n">
-        <v>4.318021917989927</v>
+        <v>2.159010958994963</v>
       </c>
       <c r="D39" t="n">
         <v>4.318021917989927</v>
       </c>
       <c r="E39" t="n">
-        <v>8.636043835979853</v>
+        <v>4.318021917989927</v>
       </c>
       <c r="F39" t="n">
-        <v>4.027370837916208</v>
+        <v>2.013685418958104</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/MAL-II_metrics.xlsx
+++ b/scripts/correlation/metric_df/MAL-II_metrics.xlsx
@@ -491,7 +491,11 @@
       <c r="F2" t="n">
         <v>0.7857334500000007</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,7 +518,11 @@
       <c r="F3" t="n">
         <v>1.656975466666664</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -564,7 +572,11 @@
       <c r="F5" t="n">
         <v>2.779362973797379</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -614,7 +626,11 @@
       <c r="F7" t="n">
         <v>9.066212737940461</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -637,7 +653,11 @@
       <c r="F8" t="n">
         <v>9.243398466666669</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -714,7 +734,11 @@
       <c r="F11" t="n">
         <v>5.22081268333333</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -818,7 +842,11 @@
       <c r="F15" t="n">
         <v>8.986865166666666</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -841,7 +869,11 @@
       <c r="F16" t="n">
         <v>7.823645633333334</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,7 +896,11 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1022,7 +1058,11 @@
       <c r="F23" t="n">
         <v>6.301108472486089</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1288,7 +1328,11 @@
       <c r="F33" t="n">
         <v>10.25596842</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1311,7 +1355,11 @@
       <c r="F34" t="n">
         <v>16.9703715125</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,7 +1436,11 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">

--- a/scripts/correlation/metric_df/MAL-II_metrics.xlsx
+++ b/scripts/correlation/metric_df/MAL-II_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.302190333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8319648445113156</v>
+        <v>3.72349594265814</v>
       </c>
       <c r="D2" t="n">
-        <v>1.663929689022631</v>
+        <v>3.72349594265814</v>
       </c>
       <c r="E2" t="n">
-        <v>1.663929689022631</v>
+        <v>3.72349594265814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7857334500000007</v>
+        <v>3.889493000000007</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>-0.197320411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9632549413409521</v>
+        <v>3.614163003480155</v>
       </c>
       <c r="D3" t="n">
-        <v>1.926509882681904</v>
+        <v>3.614163003480155</v>
       </c>
       <c r="E3" t="n">
-        <v>1.926509882681904</v>
+        <v>3.614163003480155</v>
       </c>
       <c r="F3" t="n">
-        <v>1.656975466666664</v>
+        <v>3.595738399999996</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>-0.360426374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.166931909228419</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.166931909228419</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.166931909228419</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.057411524999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>-0.647383044</v>
       </c>
       <c r="C5" t="n">
-        <v>1.918794805683584</v>
+        <v>3.837589611367167</v>
       </c>
       <c r="D5" t="n">
         <v>3.837589611367167</v>
@@ -570,7 +570,7 @@
         <v>3.837589611367167</v>
       </c>
       <c r="F5" t="n">
-        <v>2.779362973797379</v>
+        <v>5.558725947594758</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>0.8952998042777777</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4.108248112254997</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.108248112254997</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4.108248112254997</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.629070380000003</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         <v>0.649961769</v>
       </c>
       <c r="C7" t="n">
-        <v>2.018093106582605</v>
+        <v>4.03618621316521</v>
       </c>
       <c r="D7" t="n">
         <v>4.03618621316521</v>
@@ -624,7 +624,7 @@
         <v>4.03618621316521</v>
       </c>
       <c r="F7" t="n">
-        <v>9.066212737940461</v>
+        <v>18.13242547588092</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -642,16 +642,16 @@
         <v>-0.437960094</v>
       </c>
       <c r="C8" t="n">
-        <v>1.865152500290598</v>
+        <v>4.142362830816349</v>
       </c>
       <c r="D8" t="n">
-        <v>3.730305000581196</v>
+        <v>4.142362830816349</v>
       </c>
       <c r="E8" t="n">
-        <v>3.730305000581196</v>
+        <v>4.142362830816349</v>
       </c>
       <c r="F8" t="n">
-        <v>9.243398466666669</v>
+        <v>19.2028946</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>-0.303322377</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.669427566666669</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>0.032944509</v>
       </c>
       <c r="C10" t="n">
-        <v>2.05285516092084</v>
+        <v>4.10571032184168</v>
       </c>
       <c r="D10" t="n">
         <v>4.10571032184168</v>
@@ -705,7 +705,7 @@
         <v>4.10571032184168</v>
       </c>
       <c r="F10" t="n">
-        <v>2.555755850000001</v>
+        <v>5.111511700000001</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         <v>0.186408464</v>
       </c>
       <c r="C11" t="n">
-        <v>2.035631871087058</v>
+        <v>4.071263742174115</v>
       </c>
       <c r="D11" t="n">
         <v>4.071263742174115</v>
@@ -732,7 +732,7 @@
         <v>4.071263742174115</v>
       </c>
       <c r="F11" t="n">
-        <v>5.22081268333333</v>
+        <v>10.44162536666666</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>-0.143419403</v>
       </c>
       <c r="C12" t="n">
-        <v>1.980157565799396</v>
+        <v>3.960315131598792</v>
       </c>
       <c r="D12" t="n">
         <v>3.960315131598792</v>
@@ -759,7 +759,7 @@
         <v>3.960315131598792</v>
       </c>
       <c r="F12" t="n">
-        <v>4.494746050000002</v>
+        <v>8.989492100000003</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         <v>-0.4691453039444445</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9965390634348009</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="D13" t="n">
-        <v>1.993078126869602</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="E13" t="n">
-        <v>1.993078126869602</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="F13" t="n">
-        <v>1.802353622862287</v>
+        <v>5.821840284028402</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>1.022431534305555</v>
       </c>
       <c r="C14" t="n">
-        <v>2.039452990183865</v>
+        <v>4.078905980367729</v>
       </c>
       <c r="D14" t="n">
         <v>4.078905980367729</v>
@@ -813,7 +813,7 @@
         <v>4.078905980367729</v>
       </c>
       <c r="F14" t="n">
-        <v>2.751761109444279</v>
+        <v>5.503522218888558</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>0.270668701</v>
       </c>
       <c r="C15" t="n">
-        <v>2.086857586443512</v>
+        <v>4.173715172887023</v>
       </c>
       <c r="D15" t="n">
         <v>4.173715172887023</v>
@@ -840,7 +840,7 @@
         <v>4.173715172887023</v>
       </c>
       <c r="F15" t="n">
-        <v>8.986865166666666</v>
+        <v>17.97373033333333</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         <v>-0.33461388</v>
       </c>
       <c r="C16" t="n">
-        <v>1.897684770527529</v>
+        <v>4.022184951540781</v>
       </c>
       <c r="D16" t="n">
-        <v>3.795369541055058</v>
+        <v>4.022184951540781</v>
       </c>
       <c r="E16" t="n">
-        <v>3.795369541055058</v>
+        <v>4.022184951540781</v>
       </c>
       <c r="F16" t="n">
-        <v>7.823645633333334</v>
+        <v>15.16783846666667</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -885,16 +885,16 @@
         <v>-0.074216804</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.050093180000002</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -912,16 +912,16 @@
         <v>0.047282888</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.820703680000002</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>-0.059897697</v>
       </c>
       <c r="C19" t="n">
-        <v>2.114081950795965</v>
+        <v>4.22816390159193</v>
       </c>
       <c r="D19" t="n">
         <v>4.22816390159193</v>
@@ -948,7 +948,7 @@
         <v>4.22816390159193</v>
       </c>
       <c r="F19" t="n">
-        <v>1.617692149999999</v>
+        <v>3.235384299999998</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>-0.229252688</v>
       </c>
       <c r="C20" t="n">
-        <v>1.964155040315518</v>
+        <v>3.928310080631037</v>
       </c>
       <c r="D20" t="n">
         <v>4.194092176920991</v>
@@ -975,7 +975,7 @@
         <v>7.856620161262073</v>
       </c>
       <c r="F20" t="n">
-        <v>25.23832985</v>
+        <v>50.4766597</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>-0.267855842</v>
       </c>
       <c r="C21" t="n">
-        <v>1.992909355972643</v>
+        <v>3.985818711945287</v>
       </c>
       <c r="D21" t="n">
         <v>4.249764853871158</v>
@@ -1002,7 +1002,7 @@
         <v>7.971637423890574</v>
       </c>
       <c r="F21" t="n">
-        <v>17.21974403392994</v>
+        <v>34.43948806785988</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>-0.240328161</v>
       </c>
       <c r="C22" t="n">
-        <v>1.833820903281758</v>
+        <v>3.667641806563517</v>
       </c>
       <c r="D22" t="n">
         <v>3.667641806563517</v>
@@ -1029,7 +1029,7 @@
         <v>3.667641806563517</v>
       </c>
       <c r="F22" t="n">
-        <v>35.54856357302396</v>
+        <v>71.09712714604792</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>0.570643206</v>
       </c>
       <c r="C23" t="n">
-        <v>2.013942859456603</v>
+        <v>4.027885718913207</v>
       </c>
       <c r="D23" t="n">
         <v>4.027885718913207</v>
@@ -1056,7 +1056,7 @@
         <v>4.027885718913207</v>
       </c>
       <c r="F23" t="n">
-        <v>6.301108472486089</v>
+        <v>12.60221694497218</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1074,16 +1074,16 @@
         <v>0.212229848</v>
       </c>
       <c r="C24" t="n">
-        <v>1.233972893255204</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="D24" t="n">
-        <v>2.467945786510408</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="E24" t="n">
-        <v>2.467945786510408</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="F24" t="n">
-        <v>6.591335835714286</v>
+        <v>14.58780040000001</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>-0.130692911</v>
       </c>
       <c r="C25" t="n">
-        <v>2.139401936350821</v>
+        <v>4.278803872701642</v>
       </c>
       <c r="D25" t="n">
         <v>4.278803872701642</v>
@@ -1110,7 +1110,7 @@
         <v>4.278803872701642</v>
       </c>
       <c r="F25" t="n">
-        <v>1.141093574999998</v>
+        <v>2.282187149999996</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>-0.18653398</v>
       </c>
       <c r="C26" t="n">
-        <v>1.912201966933345</v>
+        <v>3.824403933866689</v>
       </c>
       <c r="D26" t="n">
         <v>3.863303769247083</v>
@@ -1137,7 +1137,7 @@
         <v>7.648807867733378</v>
       </c>
       <c r="F26" t="n">
-        <v>4.88385165</v>
+        <v>9.767703300000001</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>-0.211973597</v>
       </c>
       <c r="C27" t="n">
-        <v>2.084222893186851</v>
+        <v>4.168445786373701</v>
       </c>
       <c r="D27" t="n">
         <v>4.168445786373701</v>
@@ -1164,7 +1164,7 @@
         <v>4.168445786373701</v>
       </c>
       <c r="F27" t="n">
-        <v>3.520240699999999</v>
+        <v>7.040481399999997</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>-0.4626490093611111</v>
       </c>
       <c r="C28" t="n">
-        <v>2.060315808003291</v>
+        <v>4.120631616006582</v>
       </c>
       <c r="D28" t="n">
         <v>4.120631616006582</v>
@@ -1191,7 +1191,7 @@
         <v>4.120631616006582</v>
       </c>
       <c r="F28" t="n">
-        <v>2.22723848</v>
+        <v>4.454476960000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1209,16 +1209,16 @@
         <v>-0.201026073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9634829466681432</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="D29" t="n">
-        <v>1.926965893336286</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="E29" t="n">
-        <v>1.926965893336286</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="F29" t="n">
-        <v>1.545735166666667</v>
+        <v>4.036450400000001</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>0.889372469</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0656477664309</v>
+        <v>4.131295532861801</v>
       </c>
       <c r="D30" t="n">
         <v>4.176913134284119</v>
@@ -1245,7 +1245,7 @@
         <v>8.262591065723601</v>
       </c>
       <c r="F30" t="n">
-        <v>7.967744384438445</v>
+        <v>15.93548876887689</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1263,16 +1263,16 @@
         <v>-0.216916565</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.033824190612219</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.033824190612219</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.033824190612219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.100486128612861</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>-0.233172382</v>
       </c>
       <c r="C32" t="n">
-        <v>1.891327106071648</v>
+        <v>3.782654212143295</v>
       </c>
       <c r="D32" t="n">
         <v>3.782654212143295</v>
@@ -1299,7 +1299,7 @@
         <v>3.782654212143295</v>
       </c>
       <c r="F32" t="n">
-        <v>32.05585281</v>
+        <v>64.11170562</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>-0.757075503</v>
       </c>
       <c r="C33" t="n">
-        <v>1.829073543595412</v>
+        <v>3.658147087190824</v>
       </c>
       <c r="D33" t="n">
         <v>3.658147087190824</v>
@@ -1326,7 +1326,7 @@
         <v>3.658147087190824</v>
       </c>
       <c r="F33" t="n">
-        <v>10.25596842</v>
+        <v>20.51193684</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>-0.669244932</v>
       </c>
       <c r="C34" t="n">
-        <v>1.939728094744313</v>
+        <v>3.879456189488625</v>
       </c>
       <c r="D34" t="n">
         <v>3.879456189488625</v>
@@ -1353,7 +1353,7 @@
         <v>3.879456189488625</v>
       </c>
       <c r="F34" t="n">
-        <v>16.9703715125</v>
+        <v>33.940743025</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1371,16 +1371,16 @@
         <v>-0.405177893</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.35395110425367</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4.35395110425367</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4.35395110425367</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.084787055555557</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1398,16 +1398,16 @@
         <v>-0.225644532</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9413887934091622</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="D36" t="n">
-        <v>1.882777586818324</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="E36" t="n">
-        <v>1.882777586818324</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="F36" t="n">
-        <v>1.090943134313433</v>
+        <v>3.915694489448946</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1425,16 +1425,16 @@
         <v>-0.494794386</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.41969593359119</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.41969593359119</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.41969593359119</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.405267933333332</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         <v>-0.144996544</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.351221609869249</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4.351221609869249</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.351221609869249</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.04301899810019</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>-0.207162798</v>
       </c>
       <c r="C39" t="n">
-        <v>2.159010958994963</v>
+        <v>4.318021917989927</v>
       </c>
       <c r="D39" t="n">
         <v>4.318021917989927</v>
@@ -1488,7 +1488,7 @@
         <v>4.318021917989927</v>
       </c>
       <c r="F39" t="n">
-        <v>2.013685418958104</v>
+        <v>4.027370837916208</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/MAL-II_metrics.xlsx
+++ b/scripts/correlation/metric_df/MAL-II_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -477,21 +492,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.302190333</v>
+        <v>-0.3021903334180291</v>
       </c>
       <c r="C2" t="n">
         <v>3.72349594265814</v>
       </c>
       <c r="D2" t="n">
-        <v>3.72349594265814</v>
+        <v>4.2869</v>
       </c>
       <c r="E2" t="n">
-        <v>3.72349594265814</v>
+        <v>0.426</v>
       </c>
       <c r="F2" t="n">
-        <v>3.889493000000007</v>
+        <v>9.58</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -504,21 +534,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.197320411</v>
+        <v>-0.197320410867537</v>
       </c>
       <c r="C3" t="n">
         <v>3.614163003480155</v>
       </c>
       <c r="D3" t="n">
-        <v>3.614163003480155</v>
+        <v>4.019566666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>3.614163003480155</v>
+        <v>0.461</v>
       </c>
       <c r="F3" t="n">
-        <v>3.595738399999996</v>
+        <v>9.83</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -531,21 +576,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.360426374</v>
+        <v>-0.3604263738188488</v>
       </c>
       <c r="C4" t="n">
-        <v>4.166931909228419</v>
+        <v>4.144891176816192</v>
       </c>
       <c r="D4" t="n">
-        <v>4.166931909228419</v>
+        <v>1.272575</v>
       </c>
       <c r="E4" t="n">
-        <v>4.166931909228419</v>
+        <v>0.476</v>
       </c>
       <c r="F4" t="n">
-        <v>1.057411524999999</v>
+        <v>2.93</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -558,21 +618,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.647383044</v>
+        <v>-0.6473830444761903</v>
       </c>
       <c r="C5" t="n">
         <v>3.837589611367167</v>
       </c>
       <c r="D5" t="n">
-        <v>3.837589611367167</v>
+        <v>5.226847684768479</v>
       </c>
       <c r="E5" t="n">
-        <v>3.837589611367167</v>
+        <v>0.438</v>
       </c>
       <c r="F5" t="n">
-        <v>5.558725947594758</v>
+        <v>16.74</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -585,21 +660,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8952998042777777</v>
+        <v>0.8952998043383581</v>
       </c>
       <c r="C6" t="n">
         <v>4.108248112254997</v>
       </c>
       <c r="D6" t="n">
-        <v>4.108248112254997</v>
+        <v>5.13206</v>
       </c>
       <c r="E6" t="n">
-        <v>4.108248112254997</v>
+        <v>0.433</v>
       </c>
       <c r="F6" t="n">
-        <v>4.629070380000003</v>
+        <v>7.46</v>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -612,21 +702,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.649961769</v>
+        <v>0.6499617694830877</v>
       </c>
       <c r="C7" t="n">
         <v>4.03618621316521</v>
       </c>
       <c r="D7" t="n">
-        <v>4.03618621316521</v>
+        <v>18.00978431176451</v>
       </c>
       <c r="E7" t="n">
-        <v>4.03618621316521</v>
+        <v>0.454</v>
       </c>
       <c r="F7" t="n">
-        <v>18.13242547588092</v>
+        <v>6.35</v>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -635,25 +740,40 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-8)Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.437960094</v>
+        <v>0.2344742998210554</v>
       </c>
       <c r="C8" t="n">
-        <v>4.142362830816349</v>
+        <v>3.779249531613628</v>
       </c>
       <c r="D8" t="n">
-        <v>4.142362830816349</v>
+        <v>11.09813</v>
       </c>
       <c r="E8" t="n">
-        <v>4.142362830816349</v>
+        <v>0.4565</v>
       </c>
       <c r="F8" t="n">
-        <v>19.2028946</v>
+        <v>5.81</v>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -662,52 +782,82 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-8)Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.303322377</v>
+        <v>-0.4379600935220531</v>
       </c>
       <c r="C9" t="n">
-        <v>4.214625870722777</v>
+        <v>4.142362830816349</v>
       </c>
       <c r="D9" t="n">
-        <v>4.214625870722777</v>
+        <v>19.83206666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>4.214625870722777</v>
+        <v>0.379</v>
       </c>
       <c r="F9" t="n">
-        <v>3.669427566666669</v>
+        <v>12.79</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-2)Man</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.032944509</v>
+        <v>-0.3033223769521352</v>
       </c>
       <c r="C10" t="n">
-        <v>4.10571032184168</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="D10" t="n">
-        <v>4.10571032184168</v>
+        <v>3.8557</v>
       </c>
       <c r="E10" t="n">
-        <v>4.10571032184168</v>
+        <v>0.393</v>
       </c>
       <c r="F10" t="n">
-        <v>5.111511700000001</v>
+        <v>4.59</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -716,79 +866,124 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.186408464</v>
+        <v>0.0329445089737848</v>
       </c>
       <c r="C11" t="n">
-        <v>4.071263742174115</v>
+        <v>4.10571032184168</v>
       </c>
       <c r="D11" t="n">
-        <v>4.071263742174115</v>
+        <v>5.306849999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>4.071263742174115</v>
+        <v>0.438</v>
       </c>
       <c r="F11" t="n">
-        <v>10.44162536666666</v>
+        <v>6.29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.143419403</v>
+        <v>0.1864084637235158</v>
       </c>
       <c r="C12" t="n">
-        <v>3.960315131598792</v>
+        <v>4.071263742174115</v>
       </c>
       <c r="D12" t="n">
-        <v>3.960315131598792</v>
+        <v>10.9323</v>
       </c>
       <c r="E12" t="n">
-        <v>3.960315131598792</v>
+        <v>0.494</v>
       </c>
       <c r="F12" t="n">
-        <v>8.989492100000003</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4691453039444445</v>
+        <v>-0.1434194030413075</v>
       </c>
       <c r="C13" t="n">
-        <v>3.993249561324754</v>
+        <v>3.968167699217878</v>
       </c>
       <c r="D13" t="n">
-        <v>3.993249561324754</v>
+        <v>8.28354</v>
       </c>
       <c r="E13" t="n">
-        <v>3.993249561324754</v>
+        <v>0.46</v>
       </c>
       <c r="F13" t="n">
-        <v>5.821840284028402</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -797,25 +992,40 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.022431534305555</v>
+        <v>-0.4691453040058365</v>
       </c>
       <c r="C14" t="n">
-        <v>4.078905980367729</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="D14" t="n">
-        <v>4.078905980367729</v>
+        <v>6.192019201920193</v>
       </c>
       <c r="E14" t="n">
-        <v>4.078905980367729</v>
+        <v>0.398</v>
       </c>
       <c r="F14" t="n">
-        <v>5.503522218888558</v>
+        <v>13.54</v>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -824,52 +1034,82 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.270668701</v>
+        <v>1.022431534300656</v>
       </c>
       <c r="C15" t="n">
-        <v>4.173715172887023</v>
+        <v>4.078905980367729</v>
       </c>
       <c r="D15" t="n">
-        <v>4.173715172887023</v>
+        <v>5.879254592125879</v>
       </c>
       <c r="E15" t="n">
-        <v>4.173715172887023</v>
+        <v>0.436</v>
       </c>
       <c r="F15" t="n">
-        <v>17.97373033333333</v>
+        <v>8.16</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.33461388</v>
+        <v>0.2706687006035291</v>
       </c>
       <c r="C16" t="n">
-        <v>4.022184951540781</v>
+        <v>4.173715172887023</v>
       </c>
       <c r="D16" t="n">
-        <v>4.022184951540781</v>
+        <v>18.24866666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>4.022184951540781</v>
+        <v>0.414</v>
       </c>
       <c r="F16" t="n">
-        <v>15.16783846666667</v>
+        <v>17.6</v>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -878,25 +1118,40 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)[Neu5Ac(a2-8)Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.074216804</v>
+        <v>-0.0220477931007178</v>
       </c>
       <c r="C17" t="n">
-        <v>4.153007729280333</v>
+        <v>4.138221770002041</v>
       </c>
       <c r="D17" t="n">
-        <v>4.153007729280333</v>
+        <v>14.1741</v>
       </c>
       <c r="E17" t="n">
-        <v>4.153007729280333</v>
+        <v>0.431</v>
       </c>
       <c r="F17" t="n">
-        <v>2.050093180000002</v>
+        <v>3.53</v>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -905,133 +1160,208 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.047282888</v>
+        <v>-0.3346138796841023</v>
       </c>
       <c r="C18" t="n">
-        <v>4.170488355819718</v>
+        <v>4.022184951540781</v>
       </c>
       <c r="D18" t="n">
-        <v>4.170488355819718</v>
+        <v>15.19273333333334</v>
       </c>
       <c r="E18" t="n">
-        <v>4.170488355819718</v>
+        <v>0.503</v>
       </c>
       <c r="F18" t="n">
-        <v>1.820703680000002</v>
+        <v>12.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.059897697</v>
+        <v>-0.074216804294647</v>
       </c>
       <c r="C19" t="n">
-        <v>4.22816390159193</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="D19" t="n">
-        <v>4.22816390159193</v>
+        <v>2.15392</v>
       </c>
       <c r="E19" t="n">
-        <v>4.22816390159193</v>
+        <v>0.397</v>
       </c>
       <c r="F19" t="n">
-        <v>3.235384299999998</v>
+        <v>8.84</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.229252688</v>
+        <v>0.0472828875175208</v>
       </c>
       <c r="C20" t="n">
-        <v>3.928310080631037</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="D20" t="n">
-        <v>4.194092176920991</v>
+        <v>2.23434</v>
       </c>
       <c r="E20" t="n">
-        <v>7.856620161262073</v>
+        <v>0.416</v>
       </c>
       <c r="F20" t="n">
-        <v>50.4766597</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.267855842</v>
+        <v>-0.2900009186069742</v>
       </c>
       <c r="C21" t="n">
-        <v>3.985818711945287</v>
+        <v>4.22816390159193</v>
       </c>
       <c r="D21" t="n">
-        <v>4.249764853871158</v>
+        <v>3.087</v>
       </c>
       <c r="E21" t="n">
-        <v>7.971637423890574</v>
+        <v>0.408</v>
       </c>
       <c r="F21" t="n">
-        <v>34.43948806785988</v>
+        <v>15.81</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.240328161</v>
+        <v>-0.229252688332411</v>
       </c>
       <c r="C22" t="n">
-        <v>3.667641806563517</v>
+        <v>3.928310080631037</v>
       </c>
       <c r="D22" t="n">
-        <v>3.667641806563517</v>
+        <v>50.5171</v>
       </c>
       <c r="E22" t="n">
-        <v>3.667641806563517</v>
+        <v>0.4355</v>
       </c>
       <c r="F22" t="n">
-        <v>71.09712714604792</v>
+        <v>9.645</v>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1040,79 +1370,124 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.570643206</v>
+        <v>-0.2678558424485591</v>
       </c>
       <c r="C23" t="n">
-        <v>4.027885718913207</v>
+        <v>3.985818711945287</v>
       </c>
       <c r="D23" t="n">
-        <v>4.027885718913207</v>
+        <v>35.03276339032763</v>
       </c>
       <c r="E23" t="n">
-        <v>4.027885718913207</v>
+        <v>0.4005</v>
       </c>
       <c r="F23" t="n">
-        <v>12.60221694497218</v>
+        <v>46.27</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5', 'B2,5']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.212229848</v>
+        <v>-0.2403281613716503</v>
       </c>
       <c r="C24" t="n">
-        <v>4.167609593599931</v>
+        <v>3.667641806563517</v>
       </c>
       <c r="D24" t="n">
-        <v>4.167609593599931</v>
+        <v>71.97976464313098</v>
       </c>
       <c r="E24" t="n">
-        <v>4.167609593599931</v>
+        <v>0.423</v>
       </c>
       <c r="F24" t="n">
-        <v>14.58780040000001</v>
+        <v>5.18</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.130692911</v>
+        <v>-0.5201041398992311</v>
       </c>
       <c r="C25" t="n">
-        <v>4.278803872701642</v>
+        <v>4.092251619966888</v>
       </c>
       <c r="D25" t="n">
-        <v>4.278803872701642</v>
+        <v>21.34189847556184</v>
       </c>
       <c r="E25" t="n">
-        <v>4.278803872701642</v>
+        <v>0.4565</v>
       </c>
       <c r="F25" t="n">
-        <v>2.282187149999996</v>
+        <v>5.815</v>
       </c>
       <c r="G25" t="inlineStr">
+        <is>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1121,52 +1496,82 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.18653398</v>
+        <v>0.5706432060066546</v>
       </c>
       <c r="C26" t="n">
-        <v>3.824403933866689</v>
+        <v>4.027885718913207</v>
       </c>
       <c r="D26" t="n">
-        <v>3.863303769247083</v>
+        <v>12.51878145518781</v>
       </c>
       <c r="E26" t="n">
-        <v>7.648807867733378</v>
+        <v>0.408</v>
       </c>
       <c r="F26" t="n">
-        <v>9.767703300000001</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['B2,5']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.211973597</v>
+        <v>0.2122298484854519</v>
       </c>
       <c r="C27" t="n">
-        <v>4.168445786373701</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="D27" t="n">
-        <v>4.168445786373701</v>
+        <v>14.70001428571429</v>
       </c>
       <c r="E27" t="n">
-        <v>4.168445786373701</v>
+        <v>0.381</v>
       </c>
       <c r="F27" t="n">
-        <v>7.040481399999997</v>
+        <v>12.55</v>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1175,25 +1580,40 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.4626490093611111</v>
+        <v>-0.1306929106772964</v>
       </c>
       <c r="C28" t="n">
-        <v>4.120631616006582</v>
+        <v>4.278803872701642</v>
       </c>
       <c r="D28" t="n">
-        <v>4.120631616006582</v>
+        <v>2.78275</v>
       </c>
       <c r="E28" t="n">
-        <v>4.120631616006582</v>
+        <v>0.401</v>
       </c>
       <c r="F28" t="n">
-        <v>4.454476960000001</v>
+        <v>10.31</v>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1202,25 +1622,40 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.201026073</v>
+        <v>-0.186533980467303</v>
       </c>
       <c r="C29" t="n">
-        <v>4.206395016477455</v>
+        <v>3.824403933866689</v>
       </c>
       <c r="D29" t="n">
-        <v>4.206395016477455</v>
+        <v>10.38003333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>4.206395016477455</v>
+        <v>0.4415</v>
       </c>
       <c r="F29" t="n">
-        <v>4.036450400000001</v>
+        <v>3.03</v>
       </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1229,25 +1664,40 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.889372469</v>
+        <v>-0.2119735972051697</v>
       </c>
       <c r="C30" t="n">
-        <v>4.131295532861801</v>
+        <v>4.168445786373701</v>
       </c>
       <c r="D30" t="n">
-        <v>4.176913134284119</v>
+        <v>7.913600000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>8.262591065723601</v>
+        <v>0.379</v>
       </c>
       <c r="F30" t="n">
-        <v>15.93548876887689</v>
+        <v>5.91</v>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1256,25 +1706,40 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-4)GlcNAc(b1-2)]Man</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.216916565</v>
+        <v>-0.5201041398992311</v>
       </c>
       <c r="C31" t="n">
-        <v>4.033824190612219</v>
+        <v>3.931889049409715</v>
       </c>
       <c r="D31" t="n">
-        <v>4.033824190612219</v>
+        <v>16.8069</v>
       </c>
       <c r="E31" t="n">
-        <v>4.033824190612219</v>
+        <v>0.451</v>
       </c>
       <c r="F31" t="n">
-        <v>1.100486128612861</v>
+        <v>7.21</v>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1283,106 +1748,166 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.233172382</v>
+        <v>3.131071664328052</v>
       </c>
       <c r="C32" t="n">
-        <v>3.782654212143295</v>
+        <v>4.079428967749397</v>
       </c>
       <c r="D32" t="n">
-        <v>3.782654212143295</v>
+        <v>14.60475</v>
       </c>
       <c r="E32" t="n">
-        <v>3.782654212143295</v>
+        <v>0.4845</v>
       </c>
       <c r="F32" t="n">
-        <v>64.11170562</v>
+        <v>3.68</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.757075503</v>
+        <v>-0.4626490094232099</v>
       </c>
       <c r="C33" t="n">
-        <v>3.658147087190824</v>
+        <v>4.120631616006582</v>
       </c>
       <c r="D33" t="n">
-        <v>3.658147087190824</v>
+        <v>4.55372</v>
       </c>
       <c r="E33" t="n">
-        <v>3.658147087190824</v>
+        <v>0.381</v>
       </c>
       <c r="F33" t="n">
-        <v>20.51193684</v>
+        <v>18.58</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.669244932</v>
+        <v>-0.2010260728845911</v>
       </c>
       <c r="C34" t="n">
-        <v>3.879456189488625</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="D34" t="n">
-        <v>3.879456189488625</v>
+        <v>3.922066666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>3.879456189488625</v>
+        <v>0.385</v>
       </c>
       <c r="F34" t="n">
-        <v>33.940743025</v>
+        <v>16.2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-3)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.405177893</v>
+        <v>-0.0583410329756316</v>
       </c>
       <c r="C35" t="n">
-        <v>4.35395110425367</v>
+        <v>4.257635815143493</v>
       </c>
       <c r="D35" t="n">
-        <v>4.35395110425367</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>4.35395110425367</v>
+        <v>0.443</v>
       </c>
       <c r="F35" t="n">
-        <v>2.084787055555557</v>
+        <v>6.09</v>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1391,25 +1916,40 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.225644532</v>
+        <v>0.7604866754199474</v>
       </c>
       <c r="C36" t="n">
-        <v>4.193664264730816</v>
+        <v>4.168356934984343</v>
       </c>
       <c r="D36" t="n">
-        <v>4.193664264730816</v>
+        <v>11.87956</v>
       </c>
       <c r="E36" t="n">
-        <v>4.193664264730816</v>
+        <v>0.441</v>
       </c>
       <c r="F36" t="n">
-        <v>3.915694489448946</v>
+        <v>10.7</v>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1418,52 +1958,82 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.494794386</v>
+        <v>0.8893724694450214</v>
       </c>
       <c r="C37" t="n">
-        <v>4.41969593359119</v>
+        <v>4.131295532861801</v>
       </c>
       <c r="D37" t="n">
-        <v>4.41969593359119</v>
+        <v>15.88562856285629</v>
       </c>
       <c r="E37" t="n">
-        <v>4.41969593359119</v>
+        <v>0.392</v>
       </c>
       <c r="F37" t="n">
-        <v>1.405267933333332</v>
+        <v>7.59</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)GalNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.144996544</v>
+        <v>-0.2169165651922216</v>
       </c>
       <c r="C38" t="n">
-        <v>4.351221609869249</v>
+        <v>4.010868926115827</v>
       </c>
       <c r="D38" t="n">
-        <v>4.351221609869249</v>
+        <v>1.386838683868387</v>
       </c>
       <c r="E38" t="n">
-        <v>4.351221609869249</v>
+        <v>0.504</v>
       </c>
       <c r="F38" t="n">
-        <v>1.04301899810019</v>
+        <v>2.8</v>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1472,25 +2042,418 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
+          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.1845002761432834</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.753542218834862</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.296796346301297</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.2331723823735834</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.782654212143295</v>
+      </c>
+      <c r="D40" t="n">
+        <v>64.06836000000001</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.5153535069099222</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.437588662859488</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.453566666666666</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.7570755034689338</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.658147087190824</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20.77274</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.669244932173032</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.879456189488625</v>
+      </c>
+      <c r="D43" t="n">
+        <v>33.66249999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-3)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.4051778929635619</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.35395110425367</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.305422222222222</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.2256445318251801</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.193664264730816</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.918571857185718</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.4947943859222146</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.41969593359119</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.044466666666667</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.1449965437999354</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.351221609869249</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.609289071092891</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
           <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>-0.207162798</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B48" t="n">
+        <v>-0.2071627978954206</v>
+      </c>
+      <c r="C48" t="n">
         <v>4.318021917989927</v>
       </c>
-      <c r="D39" t="n">
-        <v>4.318021917989927</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.318021917989927</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4.027370837916208</v>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="D48" t="n">
+        <v>4.46855314468553</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['Sia(a2-3)']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>O</t>
         </is>
